--- a/data/metadata/Informe-01-010068-A-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010068-A-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>salario-retribucion</t>
   </si>
@@ -94,22 +94,22 @@
     <t>iaest-measure:pension-percepciones</t>
   </si>
   <si>
-    <t>iaest-dimension:salario-perceptores</t>
+    <t>iaest-measure:salario-perceptores</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>iaest-dimension:ccaa</t>
-  </si>
-  <si>
-    <t>iaest-dimension:salario-medio-anual</t>
+    <t>iaest-measure:ccaa</t>
+  </si>
+  <si>
+    <t>iaest-measure:salario-medio-anual</t>
   </si>
   <si>
     <t>iaest-measure:desempleo-retribucion</t>
   </si>
   <si>
-    <t>iaest-dimension:pension-percepciones-por-persona</t>
+    <t>iaest-measure:pension-percepciones-por-persona</t>
   </si>
   <si>
     <t>iaest-measure:pension-media-por-percepcion</t>
@@ -118,31 +118,28 @@
     <t>iaest-measure:desempleo-perceptores</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-measure:salario-percepciones</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-dimension:pension-perceptores</t>
-  </si>
-  <si>
-    <t>iaest-dimension:desempleo-medio-por-percepcion</t>
+    <t>iaest-measure:pension-perceptores</t>
+  </si>
+  <si>
+    <t>iaest-measure:desempleo-medio-por-percepcion</t>
   </si>
   <si>
     <t>iaest-measure:desempleo-prestacion-media-anual</t>
   </si>
   <si>
-    <t>iaest-dimension:pension-media-por-persona</t>
-  </si>
-  <si>
-    <t>iaest-dimension:salario-percepciones-por-persona</t>
-  </si>
-  <si>
-    <t>iaest-dimension:salario-medio-por-persona</t>
+    <t>iaest-measure:pension-media-por-persona</t>
+  </si>
+  <si>
+    <t>iaest-measure:salario-percepciones-por-persona</t>
+  </si>
+  <si>
+    <t>iaest-measure:salario-medio-por-persona</t>
   </si>
   <si>
     <t>iaest-measure:pension-retribucion</t>
@@ -160,37 +157,13 @@
     <t>skos:Concept</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>URI-Provincia</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-salario-perceptores.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-ccaa.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-salario-medio-anual.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-pension-percepciones-por-persona.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-pension-perceptores.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-desempleo-medio-por-percepcion.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-pension-media-por-persona.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-salario-percepciones-por-persona.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-salario-medio-por-persona.xlsx</t>
   </si>
 </sst>
 </file>
@@ -368,202 +341,175 @@
         <v>36</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010068-A-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010068-A-TM-TP.xlsx
@@ -11,140 +11,140 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
-  <si>
-    <t>salario-retribucion</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>salario-medio-por-percepcion</t>
-  </si>
-  <si>
-    <t>pension-percepciones</t>
-  </si>
-  <si>
-    <t>salario-perceptores</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa</t>
-  </si>
-  <si>
-    <t>salario-medio-anual</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>desempleo-retribucion</t>
-  </si>
-  <si>
-    <t>pension-percepciones-por-persona</t>
-  </si>
-  <si>
-    <t>pension-media-por-percepcion</t>
-  </si>
-  <si>
-    <t>desempleo-perceptores</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>salario-percepciones</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>pension-perceptores</t>
-  </si>
-  <si>
-    <t>desempleo-medio-por-percepcion</t>
-  </si>
-  <si>
-    <t>desempleo-prestacion-media-anual</t>
-  </si>
-  <si>
-    <t>pension-media-por-persona</t>
-  </si>
-  <si>
-    <t>salario-percepciones-por-persona</t>
-  </si>
-  <si>
-    <t>salario-medio-por-persona</t>
-  </si>
-  <si>
-    <t>pension-retribucion</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+  <si>
+    <t>Desempleo Perceptores</t>
+  </si>
+  <si>
+    <t>Pensión media por percepción</t>
+  </si>
+  <si>
+    <t>Salario Perceptores</t>
+  </si>
+  <si>
+    <t>Salario medio por percepción</t>
+  </si>
+  <si>
+    <t>Desempleo medio por percepción</t>
+  </si>
+  <si>
+    <t>Pensión Percepciones</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Pensión media por persona</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>Salario Retribución</t>
+  </si>
+  <si>
+    <t>Salario medio anual</t>
+  </si>
+  <si>
+    <t>Salario Percepciones por persona</t>
+  </si>
+  <si>
+    <t>Pensión Retribución</t>
+  </si>
+  <si>
+    <t>Desempleo Retribución</t>
+  </si>
+  <si>
+    <t>Desempleo prestación media anual</t>
+  </si>
+  <si>
+    <t>Salario Percepciones</t>
+  </si>
+  <si>
+    <t>Salario medio por persona</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Pensión Percepciones por persona</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Pensión Perceptores</t>
+  </si>
+  <si>
+    <t>CCAA</t>
+  </si>
+  <si>
+    <t>iaest-measure:desempleo-perceptores</t>
+  </si>
+  <si>
+    <t>iaest-measure:pension-media-por-percepcion</t>
+  </si>
+  <si>
+    <t>iaest-measure:salario-perceptores</t>
+  </si>
+  <si>
+    <t>iaest-measure:salario-medio-por-percepcion</t>
+  </si>
+  <si>
+    <t>iaest-measure:desempleo-medio-por-percepcion</t>
+  </si>
+  <si>
+    <t>iaest-measure:pension-percepciones</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:pension-media-por-persona</t>
   </si>
   <si>
     <t>iaest-measure:salario-retribucion</t>
   </si>
   <si>
+    <t>iaest-measure:salario-medio-anual</t>
+  </si>
+  <si>
+    <t>iaest-measure:salario-percepciones-por-persona</t>
+  </si>
+  <si>
+    <t>iaest-measure:pension-retribucion</t>
+  </si>
+  <si>
+    <t>iaest-measure:desempleo-retribucion</t>
+  </si>
+  <si>
+    <t>iaest-measure:desempleo-prestacion-media-anual</t>
+  </si>
+  <si>
+    <t>iaest-measure:salario-percepciones</t>
+  </si>
+  <si>
+    <t>iaest-measure:salario-medio-por-persona</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:pension-percepciones-por-persona</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:salario-medio-por-percepcion</t>
-  </si>
-  <si>
-    <t>iaest-measure:pension-percepciones</t>
-  </si>
-  <si>
-    <t>iaest-measure:salario-perceptores</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>iaest-measure:pension-perceptores</t>
   </si>
   <si>
     <t>iaest-measure:ccaa</t>
   </si>
   <si>
-    <t>iaest-measure:salario-medio-anual</t>
-  </si>
-  <si>
-    <t>iaest-measure:desempleo-retribucion</t>
-  </si>
-  <si>
-    <t>iaest-measure:pension-percepciones-por-persona</t>
-  </si>
-  <si>
-    <t>iaest-measure:pension-media-por-percepcion</t>
-  </si>
-  <si>
-    <t>iaest-measure:desempleo-perceptores</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:salario-percepciones</t>
-  </si>
-  <si>
-    <t>iaest-measure:pension-perceptores</t>
-  </si>
-  <si>
-    <t>iaest-measure:desempleo-medio-por-percepcion</t>
-  </si>
-  <si>
-    <t>iaest-measure:desempleo-prestacion-media-anual</t>
-  </si>
-  <si>
-    <t>iaest-measure:pension-media-por-persona</t>
-  </si>
-  <si>
-    <t>iaest-measure:salario-percepciones-por-persona</t>
-  </si>
-  <si>
-    <t>iaest-measure:salario-medio-por-persona</t>
-  </si>
-  <si>
-    <t>iaest-measure:pension-retribucion</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
@@ -154,13 +154,19 @@
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
   </si>
   <si>
     <t>URI-Municipio</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
+    <t>xsd:date</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -320,7 +326,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
@@ -341,13 +347,13 @@
         <v>36</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>39</v>
@@ -370,28 +376,28 @@
         <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>44</v>
@@ -406,28 +412,28 @@
         <v>44</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>44</v>
@@ -447,22 +453,22 @@
         <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>46</v>
@@ -471,45 +477,45 @@
         <v>46</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>50</v>
+      <c r="U5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010068-A-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010068-A-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>Desempleo Perceptores</t>
   </si>
@@ -82,6 +82,75 @@
     <t>CCAA</t>
   </si>
   <si>
+    <t>desempleo-perceptores</t>
+  </si>
+  <si>
+    <t>pension-media-por-percepcion</t>
+  </si>
+  <si>
+    <t>salario-perceptores</t>
+  </si>
+  <si>
+    <t>salario-medio-por-percepcion</t>
+  </si>
+  <si>
+    <t>desempleo-medio-por-percepcion</t>
+  </si>
+  <si>
+    <t>pension-percepciones</t>
+  </si>
+  <si>
+    <t>provincia-nombre</t>
+  </si>
+  <si>
+    <t>pension-media-por-persona</t>
+  </si>
+  <si>
+    <t>municipio-nombre</t>
+  </si>
+  <si>
+    <t>salario-retribucion</t>
+  </si>
+  <si>
+    <t>salario-medio-anual</t>
+  </si>
+  <si>
+    <t>salario-percepciones-por-persona</t>
+  </si>
+  <si>
+    <t>pension-retribucion</t>
+  </si>
+  <si>
+    <t>desempleo-retribucion</t>
+  </si>
+  <si>
+    <t>desempleo-prestacion-media-anual</t>
+  </si>
+  <si>
+    <t>salario-percepciones</t>
+  </si>
+  <si>
+    <t>salario-medio-por-persona</t>
+  </si>
+  <si>
+    <t>provincia-codigo</t>
+  </si>
+  <si>
+    <t>municipio-codigo</t>
+  </si>
+  <si>
+    <t>pension-percepciones-por-persona</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>pension-perceptores</t>
+  </si>
+  <si>
+    <t>ccaa</t>
+  </si>
+  <si>
     <t>iaest-measure:desempleo-perceptores</t>
   </si>
   <si>
@@ -167,9 +236,6 @@
   </si>
   <si>
     <t>xsd:string</t>
-  </si>
-  <si>
-    <t>mapping-ano.xlsx</t>
   </si>
 </sst>
 </file>
@@ -326,196 +392,262 @@
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="U5" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010068-A-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010068-A-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>Desempleo Perceptores</t>
   </si>
@@ -202,7 +202,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:pension-percepciones-por-persona</t>
+    <t>iaest-dimension:pension-percepciones-por-persona</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
@@ -211,9 +211,6 @@
     <t>iaest-measure:pension-perceptores</t>
   </si>
   <si>
-    <t>iaest-measure:ccaa</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
@@ -232,10 +229,16 @@
     <t>URI-Municipio</t>
   </si>
   <si>
+    <t>skos:Concept</t>
+  </si>
+  <si>
     <t>xsd:date</t>
   </si>
   <si>
-    <t>xsd:string</t>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>mapping-pension-percepciones-por-persona.xlsx</t>
   </si>
 </sst>
 </file>
@@ -505,60 +508,60 @@
         <v>65</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>62</v>
@@ -570,10 +573,10 @@
         <v>67</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>67</v>
@@ -581,55 +584,55 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>62</v>
@@ -638,16 +641,21 @@
         <v>62</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="T6" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010068-A-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010068-A-TM-TP.xlsx
@@ -262,17 +262,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -282,15 +287,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
